--- a/reports/all_lostanddamages.xlsx
+++ b/reports/all_lostanddamages.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>No.</t>
   </si>
@@ -44,16 +44,79 @@
     <t>50-000000001</t>
   </si>
   <si>
-    <t>May 15, 2024</t>
+    <t>Jun 27, 2024</t>
   </si>
   <si>
     <t>Disposal</t>
   </si>
   <si>
+    <t>₱ 20.00</t>
+  </si>
+  <si>
+    <t>₱ 100.00</t>
+  </si>
+  <si>
+    <t>50-000000002</t>
+  </si>
+  <si>
     <t>₱ 40.00</t>
   </si>
   <si>
-    <t>₱ 80.00</t>
+    <t>50-000000003</t>
+  </si>
+  <si>
+    <t>Jun 28, 2024</t>
+  </si>
+  <si>
+    <t>₱ 200.00</t>
+  </si>
+  <si>
+    <t>Na daot</t>
+  </si>
+  <si>
+    <t>50-000000004</t>
+  </si>
+  <si>
+    <t>₱ 320.00</t>
+  </si>
+  <si>
+    <t>50-000000005</t>
+  </si>
+  <si>
+    <t>₱ 300.00</t>
+  </si>
+  <si>
+    <t>50-000000006</t>
+  </si>
+  <si>
+    <t>₱ 400.00</t>
+  </si>
+  <si>
+    <t>50-000000007</t>
+  </si>
+  <si>
+    <t>Jun 29, 2024</t>
+  </si>
+  <si>
+    <t>₱ 120.00</t>
+  </si>
+  <si>
+    <t>50-000000008</t>
+  </si>
+  <si>
+    <t>₱ 1,000.00</t>
+  </si>
+  <si>
+    <t>50-000000009</t>
+  </si>
+  <si>
+    <t>Jul 01, 2024</t>
+  </si>
+  <si>
+    <t>50-000000010</t>
+  </si>
+  <si>
+    <t>50-000000011</t>
   </si>
 </sst>
 </file>
@@ -433,22 +496,22 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H2"/>
+      <selection activeCell="A1" sqref="A1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.57" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="5.713" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="23.423" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -491,7 +554,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>11</v>
@@ -500,6 +563,248 @@
         <v>12</v>
       </c>
       <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>50</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="4"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/reports/all_lostanddamages.xlsx
+++ b/reports/all_lostanddamages.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>No.</t>
   </si>
@@ -29,6 +29,9 @@
     <t>Reason</t>
   </si>
   <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>Total Qty</t>
   </si>
   <si>
@@ -38,37 +41,22 @@
     <t>Overall Cost</t>
   </si>
   <si>
-    <t>Note</t>
-  </si>
-  <si>
     <t>50-000000001</t>
   </si>
   <si>
-    <t>Jun 27, 2024</t>
+    <t>06-27-2024</t>
   </si>
   <si>
     <t>Disposal</t>
   </si>
   <si>
-    <t>₱ 20.00</t>
-  </si>
-  <si>
-    <t>₱ 100.00</t>
-  </si>
-  <si>
     <t>50-000000002</t>
   </si>
   <si>
-    <t>₱ 40.00</t>
-  </si>
-  <si>
     <t>50-000000003</t>
   </si>
   <si>
-    <t>Jun 28, 2024</t>
-  </si>
-  <si>
-    <t>₱ 200.00</t>
+    <t>06-28-2024</t>
   </si>
   <si>
     <t>Na daot</t>
@@ -77,46 +65,40 @@
     <t>50-000000004</t>
   </si>
   <si>
-    <t>₱ 320.00</t>
-  </si>
-  <si>
     <t>50-000000005</t>
   </si>
   <si>
-    <t>₱ 300.00</t>
-  </si>
-  <si>
     <t>50-000000006</t>
   </si>
   <si>
-    <t>₱ 400.00</t>
-  </si>
-  <si>
     <t>50-000000007</t>
   </si>
   <si>
-    <t>Jun 29, 2024</t>
-  </si>
-  <si>
-    <t>₱ 120.00</t>
+    <t>06-29-2024</t>
   </si>
   <si>
     <t>50-000000008</t>
   </si>
   <si>
-    <t>₱ 1,000.00</t>
+    <t>1,000.00</t>
   </si>
   <si>
     <t>50-000000009</t>
   </si>
   <si>
-    <t>Jul 01, 2024</t>
+    <t>07-01-2024</t>
   </si>
   <si>
     <t>50-000000010</t>
   </si>
   <si>
     <t>50-000000011</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>2,820.00</t>
   </si>
 </sst>
 </file>
@@ -153,7 +135,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6900"/>
+        <fgColor rgb="FFD3D3D3"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -185,17 +167,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,22 +486,22 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H12"/>
+      <selection activeCell="A1" sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.713" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="23.423" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="6.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="25.708" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="11.711" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="15.282" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -527,16 +517,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -553,23 +543,23 @@
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="5"/>
+      <c r="F2" s="6">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="4"/>
+      <c r="G2" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -577,41 +567,41 @@
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="5"/>
+      <c r="F3" s="6">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="4"/>
+      <c r="G3" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>40.0</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>18</v>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>200.0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -619,194 +609,215 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="4"/>
+      <c r="G5" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>320.0</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5"/>
+      <c r="F6" s="6">
         <v>15</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="4"/>
+      <c r="G6" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>300.0</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="5"/>
+      <c r="F7" s="6">
         <v>20</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="4"/>
+      <c r="G7" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>400.0</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="5"/>
+      <c r="F8" s="6">
         <v>6</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="4"/>
+      <c r="G8" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>120.0</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="5"/>
+      <c r="F9" s="6">
         <v>50</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="4"/>
+      <c r="G9" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="2">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6">
+        <v>10</v>
+      </c>
+      <c r="G10" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>200.0</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="5"/>
+      <c r="F11" s="6">
         <v>2</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="4"/>
+      <c r="G11" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>40.0</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="5"/>
+      <c r="F12" s="6">
         <v>5</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="4"/>
+      <c r="G12" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3">
+        <v>141.0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>220.0</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="A13:E13"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/reports/all_lostanddamages.xlsx
+++ b/reports/all_lostanddamages.xlsx
@@ -167,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -176,10 +176,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -187,6 +187,7 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,16 +518,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -800,17 +801,17 @@
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="4">
         <v>141.0</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="4">
         <v>220.0</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="4" t="s">
         <v>27</v>
       </c>
     </row>
